--- a/upload/Report.xlsx
+++ b/upload/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Nama Permohonan</t>
   </si>
@@ -32,10 +32,25 @@
     <t>Nominal</t>
   </si>
   <si>
+    <t>alfandi</t>
+  </si>
+  <si>
+    <t>2022-10-22 20:06:17</t>
+  </si>
+  <si>
+    <t>Rp.10.000</t>
+  </si>
+  <si>
+    <t>2022-10-23 15:00:34</t>
+  </si>
+  <si>
+    <t>Rp.231.123</t>
+  </si>
+  <si>
     <t>Total Nominal</t>
   </si>
   <si>
-    <t>Rp.0</t>
+    <t>Rp.241.123</t>
   </si>
 </sst>
 </file>
@@ -374,7 +389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -400,11 +415,45 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="D2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
+      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
